--- a/Df_Zebrafish_with_splits.xlsx
+++ b/Df_Zebrafish_with_splits.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e131b8bb721e77b9/Dokumente/PhD/Projects/Zebra_Fish/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ma405l\OneDrive\Dokumente\PhD\Projects\Zebra_Fish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="11_26B931B6D3C0DB458B5B2111595ED87656C5AD65" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7026E02B-C11A-464C-AF10-F2D2AFE3C715}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CD40BB-E35A-426F-9F21-A757DEB3C2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5264,10 +5264,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5558,8 +5554,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L829"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I319" sqref="I319"/>
+    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
+      <selection activeCell="P683" sqref="P683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5606,7 +5602,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5629,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -5658,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -5691,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -5714,7 +5710,7 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -5811,7 +5807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -5956,7 +5952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -6014,7 +6010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -6076,7 +6072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -6099,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>3</v>
@@ -6157,7 +6153,7 @@
         <v>2</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -6258,7 +6254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -6552,7 +6548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -6726,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -6759,7 +6755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -6782,13 +6778,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -6811,13 +6807,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -6840,13 +6836,13 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>122</v>
       </c>
@@ -6869,7 +6865,7 @@
         <v>2</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>4</v>
@@ -6908,7 +6904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>126</v>
       </c>
@@ -7051,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>3</v>
@@ -7080,13 +7076,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -7119,7 +7115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>141</v>
       </c>
@@ -7181,7 +7177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>145</v>
       </c>
@@ -7301,7 +7297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>153</v>
       </c>
@@ -7324,7 +7320,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <v>3</v>
@@ -7388,7 +7384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>159</v>
       </c>
@@ -7411,13 +7407,13 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>161</v>
       </c>
@@ -7446,7 +7442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>163</v>
       </c>
@@ -7537,7 +7533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>169</v>
       </c>
@@ -7560,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -7624,7 +7620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>175</v>
       </c>
@@ -7647,13 +7643,13 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>177</v>
       </c>
@@ -7738,13 +7734,13 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>183</v>
       </c>
@@ -7767,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>3</v>
@@ -7802,7 +7798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>187</v>
       </c>
@@ -7825,7 +7821,7 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
         <v>2</v>
@@ -7854,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7947,7 +7943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>198</v>
       </c>
@@ -8032,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>3</v>
@@ -8096,7 +8092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>208</v>
       </c>
@@ -8125,7 +8121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>210</v>
       </c>
@@ -8148,7 +8144,7 @@
         <v>2</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>3</v>
@@ -8158,7 +8154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>212</v>
       </c>
@@ -8191,7 +8187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>214</v>
       </c>
@@ -8214,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
         <v>3</v>
@@ -8243,13 +8239,13 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>218</v>
       </c>
@@ -8272,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -8365,7 +8361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>226</v>
       </c>
@@ -8485,7 +8481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>234</v>
       </c>
@@ -8508,13 +8504,13 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>236</v>
       </c>
@@ -8721,7 +8717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>252</v>
       </c>
@@ -8744,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>3</v>
@@ -8808,7 +8804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>258</v>
       </c>
@@ -8831,7 +8827,7 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110">
         <v>3</v>
@@ -8866,7 +8862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>262</v>
       </c>
@@ -8889,7 +8885,7 @@
         <v>2</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>4</v>
@@ -8899,7 +8895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>264</v>
       </c>
@@ -8932,7 +8928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>266</v>
       </c>
@@ -8984,13 +8980,13 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>270</v>
       </c>
@@ -9081,7 +9077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>276</v>
       </c>
@@ -9137,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -9344,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -9431,7 +9427,7 @@
         <v>2</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
         <v>4</v>
@@ -9464,7 +9460,7 @@
         <v>2</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>4</v>
@@ -9532,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>306</v>
       </c>
@@ -9555,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
         <v>3</v>
@@ -9735,7 +9731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>321</v>
       </c>
@@ -9758,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141">
         <v>3</v>
@@ -9938,7 +9934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>335</v>
       </c>
@@ -10083,7 +10079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>345</v>
       </c>
@@ -10106,13 +10102,13 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>347</v>
       </c>
@@ -10135,7 +10131,7 @@
         <v>2</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154">
         <v>3</v>
@@ -10174,7 +10170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>351</v>
       </c>
@@ -10197,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -10226,13 +10222,13 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>355</v>
       </c>
@@ -10255,13 +10251,13 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158">
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>357</v>
       </c>
@@ -10284,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159">
         <v>3</v>
@@ -10342,7 +10338,7 @@
         <v>2</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161">
         <v>3</v>
@@ -10410,7 +10406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>369</v>
       </c>
@@ -10433,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
         <v>2</v>
@@ -10468,7 +10464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>373</v>
       </c>
@@ -10530,7 +10526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>377</v>
       </c>
@@ -10553,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168">
         <v>2</v>
@@ -10666,10 +10662,10 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>387</v>
       </c>
@@ -10692,10 +10688,10 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>389</v>
       </c>
@@ -10718,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -10799,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>397</v>
       </c>
@@ -10822,10 +10818,10 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>399</v>
       </c>
@@ -10877,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>403</v>
       </c>
@@ -10936,7 +10932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>407</v>
       </c>
@@ -10959,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -11099,7 +11095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>419</v>
       </c>
@@ -11122,10 +11118,10 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>422</v>
       </c>
@@ -11184,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>426</v>
       </c>
@@ -11370,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -11399,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>442</v>
       </c>
@@ -11484,7 +11480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>448</v>
       </c>
@@ -11595,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>456</v>
       </c>
@@ -11618,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -11699,7 +11695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>464</v>
       </c>
@@ -11833,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -11966,7 +11962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>486</v>
       </c>
@@ -11989,7 +11985,7 @@
         <v>0</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -12100,7 +12096,7 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -12155,7 +12151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>500</v>
       </c>
@@ -12221,7 +12217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>504</v>
       </c>
@@ -12306,7 +12302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>510</v>
       </c>
@@ -12339,7 +12335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>512</v>
       </c>
@@ -12365,7 +12361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>514</v>
       </c>
@@ -12502,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>524</v>
       </c>
@@ -12535,7 +12531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>526</v>
       </c>
@@ -12558,7 +12554,7 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -12587,7 +12583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>530</v>
       </c>
@@ -12610,7 +12606,7 @@
         <v>2</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243">
         <v>4</v>
@@ -12620,7 +12616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>532</v>
       </c>
@@ -12643,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -12698,7 +12694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>538</v>
       </c>
@@ -12721,10 +12717,10 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>540</v>
       </c>
@@ -12783,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>544</v>
       </c>
@@ -12839,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -12972,7 +12968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>558</v>
       </c>
@@ -12995,7 +12991,7 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -13076,7 +13072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>566</v>
       </c>
@@ -13099,10 +13095,10 @@
         <v>0</v>
       </c>
       <c r="H261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>568</v>
       </c>
@@ -13125,10 +13121,10 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>570</v>
       </c>
@@ -13151,7 +13147,7 @@
         <v>0</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -13206,7 +13202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>576</v>
       </c>
@@ -13229,7 +13225,7 @@
         <v>0</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -13307,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -13336,7 +13332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>586</v>
       </c>
@@ -13369,7 +13365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>588</v>
       </c>
@@ -13402,7 +13398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>590</v>
       </c>
@@ -13458,7 +13454,7 @@
         <v>0</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -13487,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>596</v>
       </c>
@@ -13553,7 +13549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>600</v>
       </c>
@@ -13742,7 +13738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>614</v>
       </c>
@@ -13931,7 +13927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>628</v>
       </c>
@@ -13954,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -13983,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>632</v>
       </c>
@@ -14065,7 +14061,7 @@
         <v>0</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -14094,7 +14090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>640</v>
       </c>
@@ -14245,7 +14241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>650</v>
       </c>
@@ -14301,7 +14297,7 @@
         <v>1</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -14356,7 +14352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>660</v>
       </c>
@@ -14405,7 +14401,7 @@
         <v>0</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -14486,7 +14482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>670</v>
       </c>
@@ -14509,7 +14505,7 @@
         <v>1</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -14538,7 +14534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>674</v>
       </c>
@@ -14561,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -14668,7 +14664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>684</v>
       </c>
@@ -14701,7 +14697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>686</v>
       </c>
@@ -14724,10 +14720,10 @@
         <v>0</v>
       </c>
       <c r="H320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>688</v>
       </c>
@@ -14812,7 +14808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>694</v>
       </c>
@@ -14845,7 +14841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>696</v>
       </c>
@@ -14868,7 +14864,7 @@
         <v>1</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -14923,7 +14919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>702</v>
       </c>
@@ -14946,7 +14942,7 @@
         <v>2</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I328">
         <v>3</v>
@@ -15034,7 +15030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>710</v>
       </c>
@@ -15152,7 +15148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>718</v>
       </c>
@@ -15204,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>722</v>
       </c>
@@ -15227,7 +15223,7 @@
         <v>1</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -15253,10 +15249,10 @@
         <v>0</v>
       </c>
       <c r="H339">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>726</v>
       </c>
@@ -15279,10 +15275,10 @@
         <v>0</v>
       </c>
       <c r="H340">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>728</v>
       </c>
@@ -15315,7 +15311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>730</v>
       </c>
@@ -15397,7 +15393,7 @@
         <v>1</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -15478,7 +15474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>742</v>
       </c>
@@ -15501,7 +15497,7 @@
         <v>2</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348">
         <v>3</v>
@@ -15537,7 +15533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>746</v>
       </c>
@@ -15570,7 +15566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>748</v>
       </c>
@@ -15603,7 +15599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>750</v>
       </c>
@@ -15662,7 +15658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>754</v>
       </c>
@@ -15714,7 +15710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>758</v>
       </c>
@@ -15747,7 +15743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>760</v>
       </c>
@@ -15770,10 +15766,10 @@
         <v>1</v>
       </c>
       <c r="H357">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>762</v>
       </c>
@@ -15796,7 +15792,7 @@
         <v>0</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -15822,7 +15818,7 @@
         <v>1</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -15929,7 +15925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>774</v>
       </c>
@@ -15955,7 +15951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>776</v>
       </c>
@@ -15978,10 +15974,10 @@
         <v>0</v>
       </c>
       <c r="H365">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>778</v>
       </c>
@@ -16014,7 +16010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>780</v>
       </c>
@@ -16073,7 +16069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>784</v>
       </c>
@@ -16096,7 +16092,7 @@
         <v>2</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I369">
         <v>4</v>
@@ -16129,7 +16125,7 @@
         <v>2</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I370">
         <v>4</v>
@@ -16321,7 +16317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>802</v>
       </c>
@@ -16344,10 +16340,10 @@
         <v>0</v>
       </c>
       <c r="H378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>804</v>
       </c>
@@ -16370,7 +16366,7 @@
         <v>0</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -16425,7 +16421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>810</v>
       </c>
@@ -16448,7 +16444,7 @@
         <v>1</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -16477,7 +16473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>814</v>
       </c>
@@ -16536,7 +16532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>818</v>
       </c>
@@ -16592,10 +16588,10 @@
         <v>0</v>
       </c>
       <c r="H387">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>822</v>
       </c>
@@ -16654,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>826</v>
       </c>
@@ -16677,10 +16673,10 @@
         <v>0</v>
       </c>
       <c r="H390">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>828</v>
       </c>
@@ -16703,7 +16699,7 @@
         <v>0</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -16784,7 +16780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>836</v>
       </c>
@@ -16895,7 +16891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>844</v>
       </c>
@@ -16928,7 +16924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>846</v>
       </c>
@@ -16951,7 +16947,7 @@
         <v>2</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I400">
         <v>4</v>
@@ -17065,7 +17061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>856</v>
       </c>
@@ -17088,7 +17084,7 @@
         <v>0</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -17143,7 +17139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>862</v>
       </c>
@@ -17166,7 +17162,7 @@
         <v>0</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -17247,7 +17243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>870</v>
       </c>
@@ -17270,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.3">
@@ -17296,7 +17292,7 @@
         <v>2</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I413">
         <v>4</v>
@@ -17381,7 +17377,7 @@
         <v>0</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -17462,7 +17458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>886</v>
       </c>
@@ -17544,7 +17540,7 @@
         <v>2</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422">
         <v>3</v>
@@ -17554,7 +17550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>892</v>
       </c>
@@ -17610,10 +17606,10 @@
         <v>0</v>
       </c>
       <c r="H424">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>896</v>
       </c>
@@ -17639,7 +17635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>898</v>
       </c>
@@ -17698,7 +17694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>902</v>
       </c>
@@ -17731,7 +17727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>904</v>
       </c>
@@ -17969,7 +17965,7 @@
         <v>0</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -18021,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -18083,7 +18079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>930</v>
       </c>
@@ -18106,7 +18102,7 @@
         <v>0</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -18158,7 +18154,7 @@
         <v>0</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -18262,10 +18258,10 @@
         <v>0</v>
       </c>
       <c r="H448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>944</v>
       </c>
@@ -18288,7 +18284,7 @@
         <v>2</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I449">
         <v>3</v>
@@ -18321,10 +18317,10 @@
         <v>0</v>
       </c>
       <c r="H450">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>948</v>
       </c>
@@ -18347,7 +18343,7 @@
         <v>0</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -18376,7 +18372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>952</v>
       </c>
@@ -18399,7 +18395,7 @@
         <v>0</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -18685,7 +18681,7 @@
         <v>1</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.3">
@@ -18721,7 +18717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>978</v>
       </c>
@@ -18744,7 +18740,7 @@
         <v>0</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -18799,7 +18795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>984</v>
       </c>
@@ -18858,7 +18854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>988</v>
       </c>
@@ -18881,7 +18877,7 @@
         <v>0</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -18910,7 +18906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>992</v>
       </c>
@@ -18936,7 +18932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>994</v>
       </c>
@@ -18959,7 +18955,7 @@
         <v>0</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -19014,7 +19010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>1000</v>
       </c>
@@ -19037,7 +19033,7 @@
         <v>0</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -19089,10 +19085,10 @@
         <v>0</v>
       </c>
       <c r="H479">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>1006</v>
       </c>
@@ -19151,7 +19147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>1010</v>
       </c>
@@ -19233,7 +19229,7 @@
         <v>0</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -19288,7 +19284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>1020</v>
       </c>
@@ -19311,7 +19307,7 @@
         <v>0</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -19441,7 +19437,7 @@
         <v>1</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -19522,7 +19518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>1038</v>
       </c>
@@ -19652,7 +19648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>1048</v>
       </c>
@@ -19675,10 +19671,10 @@
         <v>1</v>
       </c>
       <c r="H501">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>1050</v>
       </c>
@@ -19734,7 +19730,7 @@
         <v>2</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I503">
         <v>4</v>
@@ -19822,7 +19818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>1060</v>
       </c>
@@ -19845,10 +19841,10 @@
         <v>0</v>
       </c>
       <c r="H507">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>1062</v>
       </c>
@@ -19881,7 +19877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>1064</v>
       </c>
@@ -19930,7 +19926,7 @@
         <v>0</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -19985,7 +19981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>1072</v>
       </c>
@@ -20008,10 +20004,10 @@
         <v>1</v>
       </c>
       <c r="H513">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>1074</v>
       </c>
@@ -20037,7 +20033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>1076</v>
       </c>
@@ -20060,7 +20056,7 @@
         <v>2</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I515">
         <v>3</v>
@@ -20119,7 +20115,7 @@
         <v>1</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -20145,7 +20141,7 @@
         <v>0</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -20252,7 +20248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>1092</v>
       </c>
@@ -20285,7 +20281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>1094</v>
       </c>
@@ -20318,7 +20314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1096</v>
       </c>
@@ -20396,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>1102</v>
       </c>
@@ -20452,7 +20448,7 @@
         <v>2</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I529">
         <v>4</v>
@@ -20462,7 +20458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>1106</v>
       </c>
@@ -20485,7 +20481,7 @@
         <v>0</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -20563,7 +20559,7 @@
         <v>0</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -20641,7 +20637,7 @@
         <v>2</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I536">
         <v>4</v>
@@ -20729,7 +20725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>1126</v>
       </c>
@@ -20788,7 +20784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>1130</v>
       </c>
@@ -20811,10 +20807,10 @@
         <v>0</v>
       </c>
       <c r="H542">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>1132</v>
       </c>
@@ -20847,7 +20843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>1134</v>
       </c>
@@ -20932,7 +20928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1140</v>
       </c>
@@ -21040,7 +21036,7 @@
         <v>0</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -21069,7 +21065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1150</v>
       </c>
@@ -21121,7 +21117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>1154</v>
       </c>
@@ -21180,7 +21176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1158</v>
       </c>
@@ -21288,7 +21284,7 @@
         <v>2</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I559">
         <v>4</v>
@@ -21399,7 +21395,7 @@
         <v>2</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563">
         <v>4</v>
@@ -21409,7 +21405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>1174</v>
       </c>
@@ -21432,10 +21428,10 @@
         <v>0</v>
       </c>
       <c r="H564">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>1176</v>
       </c>
@@ -21458,7 +21454,7 @@
         <v>1</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -21562,7 +21558,7 @@
         <v>2</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569">
         <v>2</v>
@@ -21572,7 +21568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>1186</v>
       </c>
@@ -21683,7 +21679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>1194</v>
       </c>
@@ -21742,7 +21738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>1198</v>
       </c>
@@ -21765,10 +21761,10 @@
         <v>0</v>
       </c>
       <c r="H576">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>1200</v>
       </c>
@@ -21791,7 +21787,7 @@
         <v>1</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -21921,7 +21917,7 @@
         <v>2</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I582">
         <v>3</v>
@@ -21954,7 +21950,7 @@
         <v>0</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -22032,7 +22028,7 @@
         <v>2</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I586">
         <v>2</v>
@@ -22068,7 +22064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>1222</v>
       </c>
@@ -22091,10 +22087,10 @@
         <v>0</v>
       </c>
       <c r="H588">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>1224</v>
       </c>
@@ -22176,7 +22172,7 @@
         <v>2</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I591">
         <v>4</v>
@@ -22290,7 +22286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>1238</v>
       </c>
@@ -22538,7 +22534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>1256</v>
       </c>
@@ -22561,7 +22557,7 @@
         <v>0</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -22590,7 +22586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>1260</v>
       </c>
@@ -22613,7 +22609,7 @@
         <v>0</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.3">
@@ -22639,7 +22635,7 @@
         <v>2</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I608">
         <v>3</v>
@@ -22649,7 +22645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>1264</v>
       </c>
@@ -22672,10 +22668,10 @@
         <v>1</v>
       </c>
       <c r="H609">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>1266</v>
       </c>
@@ -22906,10 +22902,10 @@
         <v>1</v>
       </c>
       <c r="H618">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>1284</v>
       </c>
@@ -22932,7 +22928,7 @@
         <v>0</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.3">
@@ -22991,7 +22987,7 @@
         <v>0</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -23121,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -23199,7 +23195,7 @@
         <v>0</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -23228,7 +23224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>1308</v>
       </c>
@@ -23251,10 +23247,10 @@
         <v>0</v>
       </c>
       <c r="H631">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>1310</v>
       </c>
@@ -23313,7 +23309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>1314</v>
       </c>
@@ -23499,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="H640">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>1328</v>
       </c>
@@ -23535,7 +23531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>1330</v>
       </c>
@@ -23558,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -23587,7 +23583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>1334</v>
       </c>
@@ -23620,7 +23616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>1336</v>
       </c>
@@ -23643,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -23669,7 +23665,7 @@
         <v>1</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -23721,10 +23717,10 @@
         <v>0</v>
       </c>
       <c r="H648">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>1345</v>
       </c>
@@ -23757,7 +23753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>1347</v>
       </c>
@@ -23790,7 +23786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>1349</v>
       </c>
@@ -23823,7 +23819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1351</v>
       </c>
@@ -23846,10 +23842,10 @@
         <v>0</v>
       </c>
       <c r="H652">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>1353</v>
       </c>
@@ -23882,7 +23878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>1355</v>
       </c>
@@ -23938,7 +23934,7 @@
         <v>1</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -24068,7 +24064,7 @@
         <v>2</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660">
         <v>4</v>
@@ -24101,10 +24097,10 @@
         <v>0</v>
       </c>
       <c r="H661">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="662" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>1371</v>
       </c>
@@ -24127,10 +24123,10 @@
         <v>1</v>
       </c>
       <c r="H662">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="663" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>1373</v>
       </c>
@@ -24163,7 +24159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>1375</v>
       </c>
@@ -24222,7 +24218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>1379</v>
       </c>
@@ -24245,10 +24241,10 @@
         <v>1</v>
       </c>
       <c r="H666">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="667" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>1381</v>
       </c>
@@ -24271,7 +24267,7 @@
         <v>0</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -24300,7 +24296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>1385</v>
       </c>
@@ -24323,10 +24319,10 @@
         <v>1</v>
       </c>
       <c r="H669">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="670" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>1387</v>
       </c>
@@ -24359,7 +24355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>1389</v>
       </c>
@@ -24515,7 +24511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>1401</v>
       </c>
@@ -24564,10 +24560,10 @@
         <v>0</v>
       </c>
       <c r="H678">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1405</v>
       </c>
@@ -24600,7 +24596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1407</v>
       </c>
@@ -24685,7 +24681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>1413</v>
       </c>
@@ -24708,10 +24704,10 @@
         <v>0</v>
       </c>
       <c r="H683">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="684" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>1415</v>
       </c>
@@ -24737,7 +24733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>1417</v>
       </c>
@@ -24796,7 +24792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1421</v>
       </c>
@@ -24907,7 +24903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>1429</v>
       </c>
@@ -25067,10 +25063,10 @@
         <v>1</v>
       </c>
       <c r="H696">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="697" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>1441</v>
       </c>
@@ -25122,7 +25118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1445</v>
       </c>
@@ -25145,7 +25141,7 @@
         <v>2</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I699">
         <v>4</v>
@@ -25285,7 +25281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1457</v>
       </c>
@@ -25308,7 +25304,7 @@
         <v>2</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I705">
         <v>4</v>
@@ -25318,7 +25314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>1459</v>
       </c>
@@ -25341,7 +25337,7 @@
         <v>2</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I706">
         <v>3</v>
@@ -25351,7 +25347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>1461</v>
       </c>
@@ -25426,7 +25422,7 @@
         <v>2</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709">
         <v>2</v>
@@ -25462,7 +25458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>1469</v>
       </c>
@@ -25521,7 +25517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1473</v>
       </c>
@@ -25544,10 +25540,10 @@
         <v>0</v>
       </c>
       <c r="H713">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>1475</v>
       </c>
@@ -25580,7 +25576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1477</v>
       </c>
@@ -25639,7 +25635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>1481</v>
       </c>
@@ -25698,7 +25694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>1485</v>
       </c>
@@ -25721,7 +25717,7 @@
         <v>0</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -25750,7 +25746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>1489</v>
       </c>
@@ -25806,7 +25802,7 @@
         <v>1</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -25861,7 +25857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>1497</v>
       </c>
@@ -25946,7 +25942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>1503</v>
       </c>
@@ -25969,7 +25965,7 @@
         <v>2</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I728">
         <v>2</v>
@@ -26005,7 +26001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>1507</v>
       </c>
@@ -26038,7 +26034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>1509</v>
       </c>
@@ -26090,7 +26086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>1513</v>
       </c>
@@ -26113,7 +26109,7 @@
         <v>0</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -26321,7 +26317,7 @@
         <v>1</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -26350,7 +26346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>1533</v>
       </c>
@@ -26373,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -26402,7 +26398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>1537</v>
       </c>
@@ -26425,7 +26421,7 @@
         <v>0</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -26555,7 +26551,7 @@
         <v>1</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -26636,7 +26632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1555</v>
       </c>
@@ -26692,7 +26688,7 @@
         <v>2</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755">
         <v>3</v>
@@ -26728,7 +26724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1561</v>
       </c>
@@ -26751,7 +26747,7 @@
         <v>0</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -26907,7 +26903,7 @@
         <v>1</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -26988,7 +26984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1581</v>
       </c>
@@ -27044,7 +27040,7 @@
         <v>2</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I768">
         <v>1</v>
@@ -27054,7 +27050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>1585</v>
       </c>
@@ -27080,7 +27076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="770" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1587</v>
       </c>
@@ -27103,7 +27099,7 @@
         <v>0</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -27262,7 +27258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1601</v>
       </c>
@@ -27340,7 +27336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>1607</v>
       </c>
@@ -27373,7 +27369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>1609</v>
       </c>
@@ -27406,7 +27402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>1611</v>
       </c>
@@ -27488,7 +27484,7 @@
         <v>0</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -27517,7 +27513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>1619</v>
       </c>
@@ -27550,7 +27546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>1621</v>
       </c>
@@ -27609,7 +27605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>1625</v>
       </c>
@@ -27668,7 +27664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>1629</v>
       </c>
@@ -27691,10 +27687,10 @@
         <v>0</v>
       </c>
       <c r="H791">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="792" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>1631</v>
       </c>
@@ -27717,7 +27713,7 @@
         <v>1</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -27824,7 +27820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>1641</v>
       </c>
@@ -27883,7 +27879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>1645</v>
       </c>
@@ -27965,7 +27961,7 @@
         <v>1</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -28017,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -28069,7 +28065,7 @@
         <v>2</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I805">
         <v>4</v>
@@ -28206,10 +28202,10 @@
         <v>0</v>
       </c>
       <c r="H810">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="811" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>1669</v>
       </c>
@@ -28232,7 +28228,7 @@
         <v>0</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -28287,7 +28283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>1675</v>
       </c>
@@ -28388,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -28469,7 +28465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>1689</v>
       </c>
@@ -28492,10 +28488,10 @@
         <v>0</v>
       </c>
       <c r="H821">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="822" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="822" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>1691</v>
       </c>
@@ -28518,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -28625,7 +28621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>1701</v>
       </c>
@@ -28658,7 +28654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>1703</v>
       </c>
@@ -28681,7 +28677,7 @@
         <v>0</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -28716,7 +28712,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H829" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <filters>
         <filter val="2"/>
       </filters>

--- a/Df_Zebrafish_with_splits.xlsx
+++ b/Df_Zebrafish_with_splits.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ma405l\OneDrive\Dokumente\PhD\Projects\Zebra_Fish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e131b8bb721e77b9/Dokumente/PhD/Projects/Zebra_Fish/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CD40BB-E35A-426F-9F21-A757DEB3C2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{A4CD40BB-E35A-426F-9F21-A757DEB3C2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2492FBE2-B96F-4CF1-B2EA-E8A61ECD17CD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5554,7 +5554,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L829"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P683" sqref="P683"/>
     </sheetView>
   </sheetViews>
@@ -5566,7 +5566,7 @@
     <col min="5" max="5" width="13.77734375" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
     <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5602,7 +5602,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>122</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>126</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>141</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>145</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>153</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>159</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>161</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>163</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>169</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>175</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>177</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>183</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>187</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>198</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>208</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>210</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>212</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>214</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>218</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>226</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>234</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>236</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>252</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>258</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>262</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>264</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>266</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>270</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>276</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>306</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>321</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>335</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>345</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>347</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>351</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>355</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>357</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>369</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>373</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>377</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>387</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>389</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>397</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>399</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>403</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>407</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>419</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>422</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>426</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>442</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>448</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>456</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>464</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>486</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>500</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>504</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>510</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>512</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>514</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>524</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>526</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>530</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>532</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>538</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>540</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>544</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>558</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>566</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>568</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>570</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>576</v>
       </c>
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>586</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>588</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>590</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>596</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>600</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>614</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>628</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>632</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>640</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>650</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>660</v>
       </c>
@@ -14482,7 +14482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>670</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>674</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>684</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>686</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>688</v>
       </c>
@@ -14808,7 +14808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>694</v>
       </c>
@@ -14841,7 +14841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>696</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>702</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>710</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>718</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>722</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>726</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>728</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>730</v>
       </c>
@@ -15474,7 +15474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>742</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>746</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>748</v>
       </c>
@@ -15599,7 +15599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>750</v>
       </c>
@@ -15658,7 +15658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>754</v>
       </c>
@@ -15710,7 +15710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>758</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>760</v>
       </c>
@@ -15769,7 +15769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>762</v>
       </c>
@@ -15925,7 +15925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>774</v>
       </c>
@@ -15951,7 +15951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>776</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>778</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>780</v>
       </c>
@@ -16069,7 +16069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>784</v>
       </c>
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>802</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>804</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>810</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>814</v>
       </c>
@@ -16532,7 +16532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>818</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>822</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>826</v>
       </c>
@@ -16676,7 +16676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>828</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>836</v>
       </c>
@@ -16891,7 +16891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>844</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>846</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>856</v>
       </c>
@@ -17139,7 +17139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>862</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>870</v>
       </c>
@@ -17458,7 +17458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>886</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>892</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>896</v>
       </c>
@@ -17635,7 +17635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>898</v>
       </c>
@@ -17694,7 +17694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>902</v>
       </c>
@@ -17727,7 +17727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>904</v>
       </c>
@@ -18079,7 +18079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>930</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>944</v>
       </c>
@@ -18320,7 +18320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>948</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>952</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>978</v>
       </c>
@@ -18795,7 +18795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>984</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>988</v>
       </c>
@@ -18906,7 +18906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>992</v>
       </c>
@@ -18932,7 +18932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>994</v>
       </c>
@@ -19010,7 +19010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>1000</v>
       </c>
@@ -19088,7 +19088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>1006</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>1010</v>
       </c>
@@ -19284,7 +19284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>1020</v>
       </c>
@@ -19518,7 +19518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>1038</v>
       </c>
@@ -19648,7 +19648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>1048</v>
       </c>
@@ -19674,7 +19674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>1050</v>
       </c>
@@ -19818,7 +19818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>1060</v>
       </c>
@@ -19844,7 +19844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>1062</v>
       </c>
@@ -19877,7 +19877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>1064</v>
       </c>
@@ -19981,7 +19981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>1072</v>
       </c>
@@ -20007,7 +20007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>1074</v>
       </c>
@@ -20033,7 +20033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>1076</v>
       </c>
@@ -20248,7 +20248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>1092</v>
       </c>
@@ -20281,7 +20281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>1094</v>
       </c>
@@ -20314,7 +20314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1096</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>1102</v>
       </c>
@@ -20458,7 +20458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>1106</v>
       </c>
@@ -20725,7 +20725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>1126</v>
       </c>
@@ -20784,7 +20784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>1130</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>1132</v>
       </c>
@@ -20843,7 +20843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>1134</v>
       </c>
@@ -20928,7 +20928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1140</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1150</v>
       </c>
@@ -21117,7 +21117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>1154</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1158</v>
       </c>
@@ -21405,7 +21405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>1174</v>
       </c>
@@ -21431,7 +21431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>1176</v>
       </c>
@@ -21568,7 +21568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>1186</v>
       </c>
@@ -21679,7 +21679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>1194</v>
       </c>
@@ -21738,7 +21738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>1198</v>
       </c>
@@ -21764,7 +21764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>1200</v>
       </c>
@@ -22064,7 +22064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>1222</v>
       </c>
@@ -22090,7 +22090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>1224</v>
       </c>
@@ -22286,7 +22286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>1238</v>
       </c>
@@ -22534,7 +22534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>1256</v>
       </c>
@@ -22586,7 +22586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>1260</v>
       </c>
@@ -22645,7 +22645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>1264</v>
       </c>
@@ -22671,7 +22671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>1266</v>
       </c>
@@ -22905,7 +22905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>1284</v>
       </c>
@@ -23224,7 +23224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>1308</v>
       </c>
@@ -23250,7 +23250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="632" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>1310</v>
       </c>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>1314</v>
       </c>
@@ -23498,7 +23498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>1328</v>
       </c>
@@ -23531,7 +23531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>1330</v>
       </c>
@@ -23583,7 +23583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>1334</v>
       </c>
@@ -23616,7 +23616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>1336</v>
       </c>
@@ -23720,7 +23720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>1345</v>
       </c>
@@ -23753,7 +23753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>1347</v>
       </c>
@@ -23786,7 +23786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>1349</v>
       </c>
@@ -23819,7 +23819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1351</v>
       </c>
@@ -23845,7 +23845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="653" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>1353</v>
       </c>
@@ -23878,7 +23878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>1355</v>
       </c>
@@ -24100,7 +24100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>1371</v>
       </c>
@@ -24126,7 +24126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="663" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>1373</v>
       </c>
@@ -24159,7 +24159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>1375</v>
       </c>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>1379</v>
       </c>
@@ -24244,7 +24244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>1381</v>
       </c>
@@ -24296,7 +24296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>1385</v>
       </c>
@@ -24322,7 +24322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="670" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>1387</v>
       </c>
@@ -24355,7 +24355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>1389</v>
       </c>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>1401</v>
       </c>
@@ -24563,7 +24563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1405</v>
       </c>
@@ -24596,7 +24596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1407</v>
       </c>
@@ -24681,7 +24681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>1413</v>
       </c>
@@ -24707,7 +24707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>1415</v>
       </c>
@@ -24733,7 +24733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="685" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>1417</v>
       </c>
@@ -24792,7 +24792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1421</v>
       </c>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>1429</v>
       </c>
@@ -25066,7 +25066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>1441</v>
       </c>
@@ -25118,7 +25118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1445</v>
       </c>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1457</v>
       </c>
@@ -25314,7 +25314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>1459</v>
       </c>
@@ -25347,7 +25347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>1461</v>
       </c>
@@ -25458,7 +25458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>1469</v>
       </c>
@@ -25517,7 +25517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1473</v>
       </c>
@@ -25543,7 +25543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="714" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>1475</v>
       </c>
@@ -25576,7 +25576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1477</v>
       </c>
@@ -25635,7 +25635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>1481</v>
       </c>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>1485</v>
       </c>
@@ -25746,7 +25746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>1489</v>
       </c>
@@ -25857,7 +25857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>1497</v>
       </c>
@@ -25942,7 +25942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>1503</v>
       </c>
@@ -26001,7 +26001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>1507</v>
       </c>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>1509</v>
       </c>
@@ -26086,7 +26086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>1513</v>
       </c>
@@ -26346,7 +26346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>1533</v>
       </c>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>1537</v>
       </c>
@@ -26632,7 +26632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1555</v>
       </c>
@@ -26724,7 +26724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1561</v>
       </c>
@@ -26984,7 +26984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1581</v>
       </c>
@@ -27050,7 +27050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>1585</v>
       </c>
@@ -27076,7 +27076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1587</v>
       </c>
@@ -27258,7 +27258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1601</v>
       </c>
@@ -27336,7 +27336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>1607</v>
       </c>
@@ -27369,7 +27369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>1609</v>
       </c>
@@ -27402,7 +27402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>1611</v>
       </c>
@@ -27513,7 +27513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>1619</v>
       </c>
@@ -27546,7 +27546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>1621</v>
       </c>
@@ -27605,7 +27605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>1625</v>
       </c>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>1629</v>
       </c>
@@ -27690,7 +27690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>1631</v>
       </c>
@@ -27820,7 +27820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>1641</v>
       </c>
@@ -27879,7 +27879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>1645</v>
       </c>
@@ -28205,7 +28205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>1669</v>
       </c>
@@ -28283,7 +28283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>1675</v>
       </c>
@@ -28465,7 +28465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>1689</v>
       </c>
@@ -28491,7 +28491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="822" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>1691</v>
       </c>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>1701</v>
       </c>
@@ -28654,7 +28654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>1703</v>
       </c>
@@ -28712,7 +28712,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H829" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="7">
+    <filterColumn colId="6">
       <filters>
         <filter val="2"/>
       </filters>
